--- a/medicine/Handicap/Presque_(film)/Presque_(film).xlsx
+++ b/medicine/Handicap/Presque_(film)/Presque_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque est un film franco-suisse réalisé par Bernard Campan et Alexandre Jollien et sorti en 2021.
 Il est présenté dans des festivals en 2021 avant sa sortie dans les salles françaises le 19 janvier 2022.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis (Bernard Campan), croque-mort, rencontre Igor, une personne handicapée (Alexandre Jollien)[1], après un accident de la route[2]. Par un concours de circonstances, ils décident d'effectuer un road trip dans un corbillard contenant la dépouille de Madeleine, partant de Lausanne pour aller jusque dans le sud de la France[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis (Bernard Campan), croque-mort, rencontre Igor, une personne handicapée (Alexandre Jollien), après un accident de la route. Par un concours de circonstances, ils décident d'effectuer un road trip dans un corbillard contenant la dépouille de Madeleine, partant de Lausanne pour aller jusque dans le sud de la France.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre français : Presque
@@ -565,14 +581,14 @@
 Genre : comédie dramatique, road movie
 Durée : 91 minutes
 Dates de sortie :
-France : 25 août 2021 (avant-première du Festival du film francophone d'Angoulême)[4]
-France : 18 octobre 2021 (avant-première du Festival du cinéma méditerranéen de Montpellier)[5],[6]
-France : 15 décembre 2021 (Les Arcs Film Festival)[7]
-France : 26 janvier 2022[8]
-Suisse romande : 19 janvier 2022[9]
-Suisse alémanique : 7 avril 2022[9]
+France : 25 août 2021 (avant-première du Festival du film francophone d'Angoulême)
+France : 18 octobre 2021 (avant-première du Festival du cinéma méditerranéen de Montpellier),
+France : 15 décembre 2021 (Les Arcs Film Festival)
+France : 26 janvier 2022
+Suisse romande : 19 janvier 2022
+Suisse alémanique : 7 avril 2022
 Classification :
-Suisse : interdit aux moins de 10 ans lors de sa sortie[10]</t>
+Suisse : interdit aux moins de 10 ans lors de sa sortie</t>
         </is>
       </c>
     </row>
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données d'Unifrance. Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Bernard Campan : Louis Caretti
@@ -649,10 +667,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est des suites de leur rencontre que l'idée du film est née. Dans leur entretien de promotion, Bernard Campan avance que l'idée de faire un film est venue de Philippe Godeau. Ce n'est que plusieurs années après qu'Alexandre Jollien se présente à Bernard Campan avec le synopsis du scénario. Une partie du scénario reprend des traits de l'existence, de l'amitié entre les deux acteurs et réalisateurs[11].
-Les prises de vues démarrent le 3 février 2020 avant d'être interrompues le mois suivant en raison de la pandémie de Covid-19, elles reprennent par la suite en juin 2020. Le tournage a lieu en partie dans l'Hérault, notamment au bord du Lac du Salagou, à Pézenas[12] et Montpellier[13]. Une autre partie du tournage a lieu en Suisse, notamment dans le canton de Vaud, en particulier à Lausanne et à l’hôpital de Morges[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est des suites de leur rencontre que l'idée du film est née. Dans leur entretien de promotion, Bernard Campan avance que l'idée de faire un film est venue de Philippe Godeau. Ce n'est que plusieurs années après qu'Alexandre Jollien se présente à Bernard Campan avec le synopsis du scénario. Une partie du scénario reprend des traits de l'existence, de l'amitié entre les deux acteurs et réalisateurs.
+Les prises de vues démarrent le 3 février 2020 avant d'être interrompues le mois suivant en raison de la pandémie de Covid-19, elles reprennent par la suite en juin 2020. Le tournage a lieu en partie dans l'Hérault, notamment au bord du Lac du Salagou, à Pézenas et Montpellier. Une autre partie du tournage a lieu en Suisse, notamment dans le canton de Vaud, en particulier à Lausanne et à l’hôpital de Morges.
 </t>
         </is>
       </c>
@@ -681,9 +701,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les Arcs Film Festival : prix « Déplacer Les Montagnes »[7]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Arcs Film Festival : prix « Déplacer Les Montagnes »</t>
         </is>
       </c>
     </row>
@@ -713,11 +735,51 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Le film est accueilli par une critique généralement favorable. La Croix, par exemple, voit une « tendre sincérité » chez Bernard Campan et une « candeur espiègle » chez Alexandre Jollien. Les qualificatifs tels que « tendre » (Le Monde), « sympathique » (L'Obs), « sincère », ressortent régulièrement dans la presse, mais aussi parfois d'autres points, négatifs ceux-là. Ainsi, Le Dauphiné libéré, tout en reconnaissant une « évidente sincérité » au film, regrette tout de même que son scénario soit trop « prévisible », tout comme La Voix du Nord, Première ou Cineman[15],[16].
-Sur le site web Allociné, la presse donne la note moyenne de 3,5/5 pour 17 titres, les spectatrices et spectateurs octroient au film la moyenne de 4,3/5 pour 1 329 notes et 274 critiques[16].
-Box-office
-Lors de sa sortie en France, le 26 janvier 2022, le film est 3e du box-office avec 18 841 entrées, dont 5 043 avant-premières pour 443 copies[17]. Au bout d'une semaine, la comédie dramatique se classe première du classement avec 151 276 entrées devant le blockbuster américain Spider-Man: No Way Home (150 691) et le drame français Adieu monsieur Haffmann (137 914)[18]. Pour sa 2e semaine d'exploitation, le long-métrage repasse derrière Spider-Man à la 5e position du classement pour un nombre d'entrées cumulées de 275 673[19]. Après 5 semaines d'exploitation en France, le film cumule 452 300 entrées[20].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est accueilli par une critique généralement favorable. La Croix, par exemple, voit une « tendre sincérité » chez Bernard Campan et une « candeur espiègle » chez Alexandre Jollien. Les qualificatifs tels que « tendre » (Le Monde), « sympathique » (L'Obs), « sincère », ressortent régulièrement dans la presse, mais aussi parfois d'autres points, négatifs ceux-là. Ainsi, Le Dauphiné libéré, tout en reconnaissant une « évidente sincérité » au film, regrette tout de même que son scénario soit trop « prévisible », tout comme La Voix du Nord, Première ou Cineman,.
+Sur le site web Allociné, la presse donne la note moyenne de 3,5/5 pour 17 titres, les spectatrices et spectateurs octroient au film la moyenne de 4,3/5 pour 1 329 notes et 274 critiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Presque_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Presque_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa sortie en France, le 26 janvier 2022, le film est 3e du box-office avec 18 841 entrées, dont 5 043 avant-premières pour 443 copies. Au bout d'une semaine, la comédie dramatique se classe première du classement avec 151 276 entrées devant le blockbuster américain Spider-Man: No Way Home (150 691) et le drame français Adieu monsieur Haffmann (137 914). Pour sa 2e semaine d'exploitation, le long-métrage repasse derrière Spider-Man à la 5e position du classement pour un nombre d'entrées cumulées de 275 673. Après 5 semaines d'exploitation en France, le film cumule 452 300 entrées.
 </t>
         </is>
       </c>
